--- a/biology/Biochimie/Tryptase/Tryptase.xlsx
+++ b/biology/Biochimie/Tryptase/Tryptase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tryptase est une protéase à sérine qui catalyse le clivage des liaisons peptidiques suivant un résidu de lysine ou d'arginine, avec davantage de sélectivité que la trypsine. Elle est contenue dans les granules cytoplasmiques de tous les mastocytes, et ce de manière quasi spécifique.
 Plus de 99 % de la tryptase étant d'origine mastocytaire, elle constitue donc un marqueur de l'activation des mastocytes et peut être utilisée dans le diagnostic de chocs d'origine anaphylactique (&gt;20 ng/ml).
